--- a/TestData/data.xlsx
+++ b/TestData/data.xlsx
@@ -27,28 +27,38 @@
     <t>password</t>
   </si>
   <si>
-    <t>sukhjitp@pkgstg.req1</t>
+    <t>Selenium@gmail.com</t>
   </si>
   <si>
-    <t>40$uki40</t>
+    <t>selenium@1234</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -68,14 +78,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -408,7 +421,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -425,7 +438,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="17">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -433,6 +446,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
